--- a/data_year/zb/农业/受灾和成灾面积.xlsx
+++ b/data_year/zb/农业/受灾和成灾面积.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,771 +488,459 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2795</v>
+        <v>4120.7</v>
       </c>
       <c r="C2" t="n">
-        <v>1032</v>
+        <v>1443.7</v>
       </c>
       <c r="D2" t="n">
-        <v>54690</v>
+        <v>37430</v>
       </c>
       <c r="E2" t="n">
-        <v>34370</v>
+        <v>18540</v>
       </c>
       <c r="F2" t="n">
-        <v>40540</v>
+        <v>13260</v>
       </c>
       <c r="G2" t="n">
-        <v>26780</v>
+        <v>8990</v>
       </c>
       <c r="H2" t="n">
-        <v>7320</v>
+        <v>17520</v>
       </c>
       <c r="I2" t="n">
-        <v>4320</v>
+        <v>7020</v>
       </c>
       <c r="J2" t="n">
-        <v>2307</v>
+        <v>2180.1</v>
       </c>
       <c r="K2" t="n">
-        <v>1162</v>
+        <v>916.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2978</v>
+        <v>4447.1</v>
       </c>
       <c r="C3" t="n">
-        <v>1777</v>
+        <v>1290.9</v>
       </c>
       <c r="D3" t="n">
-        <v>52210</v>
+        <v>32470</v>
       </c>
       <c r="E3" t="n">
-        <v>31790</v>
+        <v>12440</v>
       </c>
       <c r="F3" t="n">
-        <v>38470</v>
+        <v>16300</v>
       </c>
       <c r="G3" t="n">
-        <v>23700</v>
+        <v>6600</v>
       </c>
       <c r="H3" t="n">
-        <v>6040</v>
+        <v>6860</v>
       </c>
       <c r="I3" t="n">
-        <v>3610</v>
+        <v>2840</v>
       </c>
       <c r="J3" t="n">
-        <v>3627</v>
+        <v>3309.3</v>
       </c>
       <c r="K3" t="n">
-        <v>2056</v>
+        <v>1347.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4212</v>
+        <v>1617.8</v>
       </c>
       <c r="C4" t="n">
-        <v>2293</v>
+        <v>794.6</v>
       </c>
       <c r="D4" t="n">
-        <v>46950</v>
+        <v>24960</v>
       </c>
       <c r="E4" t="n">
-        <v>27160</v>
+        <v>11470</v>
       </c>
       <c r="F4" t="n">
-        <v>22120</v>
+        <v>9340</v>
       </c>
       <c r="G4" t="n">
-        <v>13170</v>
+        <v>3510</v>
       </c>
       <c r="H4" t="n">
-        <v>12290</v>
+        <v>7730</v>
       </c>
       <c r="I4" t="n">
-        <v>7390</v>
+        <v>4140</v>
       </c>
       <c r="J4" t="n">
-        <v>7477</v>
+        <v>2780.8</v>
       </c>
       <c r="K4" t="n">
-        <v>3832</v>
+        <v>1368.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4482.8</v>
+        <v>2320.1</v>
       </c>
       <c r="C5" t="n">
-        <v>2110.3</v>
+        <v>885.3</v>
       </c>
       <c r="D5" t="n">
-        <v>54510</v>
+        <v>31350</v>
       </c>
       <c r="E5" t="n">
-        <v>32520</v>
+        <v>14300</v>
       </c>
       <c r="F5" t="n">
-        <v>24850</v>
+        <v>14100</v>
       </c>
       <c r="G5" t="n">
-        <v>14470</v>
+        <v>5850</v>
       </c>
       <c r="H5" t="n">
-        <v>19210</v>
+        <v>8760</v>
       </c>
       <c r="I5" t="n">
-        <v>12290</v>
+        <v>4860</v>
       </c>
       <c r="J5" t="n">
-        <v>4790.9</v>
+        <v>3387.3</v>
       </c>
       <c r="K5" t="n">
-        <v>2928.2</v>
+        <v>1682.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3710.56301</v>
+        <v>2132.5</v>
       </c>
       <c r="C6" t="n">
-        <v>1665.1</v>
+        <v>932.7</v>
       </c>
       <c r="D6" t="n">
-        <v>37110</v>
+        <v>24890</v>
       </c>
       <c r="E6" t="n">
-        <v>16300</v>
+        <v>12680</v>
       </c>
       <c r="F6" t="n">
-        <v>17250</v>
+        <v>12270</v>
       </c>
       <c r="G6" t="n">
-        <v>8480</v>
+        <v>5680</v>
       </c>
       <c r="H6" t="n">
-        <v>7310</v>
+        <v>4720</v>
       </c>
       <c r="I6" t="n">
-        <v>3750</v>
+        <v>2700</v>
       </c>
       <c r="J6" t="n">
-        <v>5796.87928456065</v>
+        <v>3225.4</v>
       </c>
       <c r="K6" t="n">
-        <v>2191.3</v>
+        <v>2193.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4428.089</v>
+        <v>900.3</v>
       </c>
       <c r="C7" t="n">
-        <v>1838.4</v>
+        <v>474.2</v>
       </c>
       <c r="D7" t="n">
-        <v>38820</v>
+        <v>21770</v>
       </c>
       <c r="E7" t="n">
-        <v>19970</v>
+        <v>12380</v>
       </c>
       <c r="F7" t="n">
-        <v>16030</v>
+        <v>10610</v>
       </c>
       <c r="G7" t="n">
-        <v>8480</v>
+        <v>5860</v>
       </c>
       <c r="H7" t="n">
-        <v>10930</v>
+        <v>5620</v>
       </c>
       <c r="I7" t="n">
-        <v>6050</v>
+        <v>3330</v>
       </c>
       <c r="J7" t="n">
-        <v>2977.0426</v>
+        <v>2918</v>
       </c>
       <c r="K7" t="n">
-        <v>1635.3</v>
+        <v>1824.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4912.6</v>
+        <v>2885.07555133333</v>
       </c>
       <c r="C8" t="n">
-        <v>2835.5</v>
+        <v>1179.1747751</v>
       </c>
       <c r="D8" t="n">
-        <v>41090</v>
+        <v>26220</v>
       </c>
       <c r="E8" t="n">
-        <v>24630</v>
+        <v>13670</v>
       </c>
       <c r="F8" t="n">
-        <v>20740</v>
+        <v>9870</v>
       </c>
       <c r="G8" t="n">
-        <v>13410</v>
+        <v>6130</v>
       </c>
       <c r="H8" t="n">
-        <v>8000</v>
+        <v>8530</v>
       </c>
       <c r="I8" t="n">
-        <v>4570</v>
+        <v>4340</v>
       </c>
       <c r="J8" t="n">
-        <v>4387.3635</v>
+        <v>2908.08287860667</v>
       </c>
       <c r="K8" t="n">
-        <v>2144.2</v>
+        <v>1424.42202970667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4071.93333333333</v>
+        <v>524.5</v>
       </c>
       <c r="C9" t="n">
-        <v>1509.3</v>
+        <v>311.8</v>
       </c>
       <c r="D9" t="n">
-        <v>48990</v>
+        <v>18480</v>
       </c>
       <c r="E9" t="n">
-        <v>25060</v>
+        <v>9200</v>
       </c>
       <c r="F9" t="n">
-        <v>29390</v>
+        <v>9870</v>
       </c>
       <c r="G9" t="n">
-        <v>16170</v>
+        <v>4440</v>
       </c>
       <c r="H9" t="n">
-        <v>10460</v>
+        <v>5410</v>
       </c>
       <c r="I9" t="n">
-        <v>5100</v>
+        <v>3020</v>
       </c>
       <c r="J9" t="n">
-        <v>2985.86666666667</v>
+        <v>2268.1</v>
       </c>
       <c r="K9" t="n">
-        <v>1415.4</v>
+        <v>1237.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14695.6271</v>
+        <v>3412.6</v>
       </c>
       <c r="C10" t="n">
-        <v>8719.233333333341</v>
+        <v>1869.9</v>
       </c>
       <c r="D10" t="n">
-        <v>39990</v>
+        <v>20810</v>
       </c>
       <c r="E10" t="n">
-        <v>22280</v>
+        <v>10570</v>
       </c>
       <c r="F10" t="n">
-        <v>12140</v>
+        <v>7710</v>
       </c>
       <c r="G10" t="n">
-        <v>6800</v>
+        <v>2620</v>
       </c>
       <c r="H10" t="n">
-        <v>6480</v>
+        <v>3950</v>
       </c>
       <c r="I10" t="n">
-        <v>3660</v>
+        <v>2550</v>
       </c>
       <c r="J10" t="n">
-        <v>4179.81708095238</v>
+        <v>2406.8</v>
       </c>
       <c r="K10" t="n">
-        <v>2123.13333333333</v>
+        <v>1548.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3672.52</v>
+        <v>586</v>
       </c>
       <c r="C11" t="n">
-        <v>1445.6</v>
+        <v>202</v>
       </c>
       <c r="D11" t="n">
-        <v>47210</v>
+        <v>19260</v>
       </c>
       <c r="E11" t="n">
-        <v>21230</v>
+        <v>7910</v>
       </c>
       <c r="F11" t="n">
-        <v>29260</v>
+        <v>7840</v>
       </c>
       <c r="G11" t="n">
-        <v>13200</v>
+        <v>3330</v>
       </c>
       <c r="H11" t="n">
-        <v>7610</v>
+        <v>6680</v>
       </c>
       <c r="I11" t="n">
-        <v>3160</v>
+        <v>2610</v>
       </c>
       <c r="J11" t="n">
-        <v>5493.06666666667</v>
+        <v>2228</v>
       </c>
       <c r="K11" t="n">
-        <v>2944.05333333333</v>
+        <v>976</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4120.7</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1443.7</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>37430</v>
+        <v>19960</v>
       </c>
       <c r="E12" t="n">
-        <v>18540</v>
+        <v>7990</v>
       </c>
       <c r="F12" t="n">
-        <v>13260</v>
+        <v>5080</v>
       </c>
       <c r="G12" t="n">
-        <v>8990</v>
+        <v>2510</v>
       </c>
       <c r="H12" t="n">
-        <v>17520</v>
+        <v>7190</v>
       </c>
       <c r="I12" t="n">
-        <v>7020</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2180.1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>916.1</v>
-      </c>
+        <v>3040</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4447.1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1290.9</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>32470</v>
+        <v>11739.19</v>
       </c>
       <c r="E13" t="n">
-        <v>12440</v>
+        <v>4681.85333333333</v>
       </c>
       <c r="F13" t="n">
-        <v>16300</v>
+        <v>3426.16</v>
       </c>
       <c r="G13" t="n">
-        <v>6600</v>
+        <v>1406.82666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>6860</v>
+        <v>4760.43</v>
       </c>
       <c r="I13" t="n">
-        <v>2840</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3309.3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1347.9</v>
-      </c>
+        <v>2064.6</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1617.8</v>
-      </c>
-      <c r="C14" t="n">
-        <v>794.6</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>24960</v>
+        <v>12070</v>
       </c>
       <c r="E14" t="n">
-        <v>11470</v>
+        <v>4370</v>
       </c>
       <c r="F14" t="n">
-        <v>9340</v>
+        <v>6090</v>
       </c>
       <c r="G14" t="n">
-        <v>3510</v>
+        <v>2040</v>
       </c>
       <c r="H14" t="n">
-        <v>7730</v>
+        <v>3410</v>
       </c>
       <c r="I14" t="n">
-        <v>4140</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2780.8</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1368.4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2320.1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>885.3</v>
-      </c>
-      <c r="D15" t="n">
-        <v>31350</v>
-      </c>
-      <c r="E15" t="n">
-        <v>14300</v>
-      </c>
-      <c r="F15" t="n">
-        <v>14100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5850</v>
-      </c>
-      <c r="H15" t="n">
-        <v>8760</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4860</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3387.3</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1682.3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2132.5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>932.7</v>
-      </c>
-      <c r="D16" t="n">
-        <v>24890</v>
-      </c>
-      <c r="E16" t="n">
-        <v>12680</v>
-      </c>
-      <c r="F16" t="n">
-        <v>12270</v>
-      </c>
-      <c r="G16" t="n">
-        <v>5680</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4720</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2700</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3225.4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2193.1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>900.3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>474.2</v>
-      </c>
-      <c r="D17" t="n">
-        <v>21770</v>
-      </c>
-      <c r="E17" t="n">
-        <v>12380</v>
-      </c>
-      <c r="F17" t="n">
-        <v>10610</v>
-      </c>
-      <c r="G17" t="n">
-        <v>5860</v>
-      </c>
-      <c r="H17" t="n">
-        <v>5620</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3330</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2918</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1824.8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2885.07555133333</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1179.1747751</v>
-      </c>
-      <c r="D18" t="n">
-        <v>26220</v>
-      </c>
-      <c r="E18" t="n">
-        <v>13670</v>
-      </c>
-      <c r="F18" t="n">
-        <v>9870</v>
-      </c>
-      <c r="G18" t="n">
-        <v>6130</v>
-      </c>
-      <c r="H18" t="n">
-        <v>8530</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4340</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2908.08287860667</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1424.42202970667</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>524.5</v>
-      </c>
-      <c r="C19" t="n">
-        <v>311.8</v>
-      </c>
-      <c r="D19" t="n">
-        <v>18480</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9200</v>
-      </c>
-      <c r="F19" t="n">
-        <v>9870</v>
-      </c>
-      <c r="G19" t="n">
-        <v>4440</v>
-      </c>
-      <c r="H19" t="n">
-        <v>5410</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3020</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2268.1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1237.7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>3412.6</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1869.9</v>
-      </c>
-      <c r="D20" t="n">
-        <v>20810</v>
-      </c>
-      <c r="E20" t="n">
-        <v>10570</v>
-      </c>
-      <c r="F20" t="n">
-        <v>7710</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2620</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3950</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2550</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2406.8</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1548.2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>586</v>
-      </c>
-      <c r="C21" t="n">
-        <v>202</v>
-      </c>
-      <c r="D21" t="n">
-        <v>19260</v>
-      </c>
-      <c r="E21" t="n">
-        <v>7910</v>
-      </c>
-      <c r="F21" t="n">
-        <v>7840</v>
-      </c>
-      <c r="G21" t="n">
-        <v>3330</v>
-      </c>
-      <c r="H21" t="n">
-        <v>6680</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2610</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2228</v>
-      </c>
-      <c r="K21" t="n">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
-        <v>19960</v>
-      </c>
-      <c r="E22" t="n">
-        <v>7990</v>
-      </c>
-      <c r="F22" t="n">
-        <v>5080</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2510</v>
-      </c>
-      <c r="H22" t="n">
-        <v>7190</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3040</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1460</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
